--- a/VA/work3/matlab/Ansys_PointB.xlsx
+++ b/VA/work3/matlab/Ansys_PointB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\Master_program_UFSC\VA\work3\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB9939EA-6650-432E-8F41-AB7B438352EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9F7F31-CAA6-4601-936A-29953C029F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -895,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.2690000000000001</v>
+        <v>1.4552</v>
       </c>
       <c r="D2">
-        <v>-179.95</v>
+        <v>-1.7254</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.1791999999999998</v>
+        <v>1.4625999999999999</v>
       </c>
       <c r="D3">
-        <v>-179.95</v>
+        <v>-1.7342</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,10 +923,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1.6343000000000001</v>
+        <v>1.4731000000000001</v>
       </c>
       <c r="D4">
-        <v>-179.95</v>
+        <v>-1.7467999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.3073999999999999</v>
+        <v>1.4869000000000001</v>
       </c>
       <c r="D5">
-        <v>-179.95</v>
+        <v>-1.7633000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1.0893999999999999</v>
+        <v>1.5041</v>
       </c>
       <c r="D6">
-        <v>-179.95</v>
+        <v>-1.7839</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,10 +965,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.93367</v>
+        <v>1.5248999999999999</v>
       </c>
       <c r="D7">
-        <v>-179.95</v>
+        <v>-1.8089</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.81686000000000003</v>
+        <v>1.5497000000000001</v>
       </c>
       <c r="D8">
-        <v>-179.95</v>
+        <v>-1.8388</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0.72599999999999998</v>
+        <v>1.5789</v>
       </c>
       <c r="D9">
-        <v>-179.95</v>
+        <v>-1.8738999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.65329999999999999</v>
+        <v>1.6129</v>
       </c>
       <c r="D10">
-        <v>-179.95</v>
+        <v>-1.9149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.59380999999999995</v>
+        <v>1.6523000000000001</v>
       </c>
       <c r="D11">
-        <v>-179.95</v>
+        <v>-1.9625999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.54422999999999999</v>
+        <v>1.6979</v>
       </c>
       <c r="D12">
-        <v>-179.95</v>
+        <v>-2.0177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,10 +1049,10 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>0.50226000000000004</v>
+        <v>1.7504999999999999</v>
       </c>
       <c r="D13">
-        <v>-179.95</v>
+        <v>-2.0815999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,10 +1063,10 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>0.46627999999999997</v>
+        <v>1.8112999999999999</v>
       </c>
       <c r="D14">
-        <v>-179.95</v>
+        <v>-2.1555</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,10 +1077,10 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0.43509999999999999</v>
+        <v>1.8817999999999999</v>
       </c>
       <c r="D15">
-        <v>-179.95</v>
+        <v>-2.2414000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,10 +1091,10 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>0.4078</v>
+        <v>1.9637</v>
       </c>
       <c r="D16">
-        <v>-179.94</v>
+        <v>-2.3414999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,10 +1105,10 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>0.38371</v>
+        <v>2.0594999999999999</v>
       </c>
       <c r="D17">
-        <v>-179.94</v>
+        <v>-2.4588000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>0.36227999999999999</v>
+        <v>2.1722999999999999</v>
       </c>
       <c r="D18">
-        <v>-179.94</v>
+        <v>-2.5973999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>0.34311000000000003</v>
+        <v>2.3065000000000002</v>
       </c>
       <c r="D19">
-        <v>-179.94</v>
+        <v>-2.7625999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>0.32584999999999997</v>
+        <v>2.4679000000000002</v>
       </c>
       <c r="D20">
-        <v>-179.94</v>
+        <v>-2.9618000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>0.31022</v>
+        <v>2.6648000000000001</v>
       </c>
       <c r="D21">
-        <v>-179.94</v>
+        <v>-3.2054</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,10 +1175,10 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.29601</v>
+        <v>2.9094000000000002</v>
       </c>
       <c r="D22">
-        <v>-179.94</v>
+        <v>-3.5087000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,10 +1189,10 @@
         <v>46</v>
       </c>
       <c r="C23">
-        <v>0.28303</v>
+        <v>3.2202000000000002</v>
       </c>
       <c r="D23">
-        <v>-179.94</v>
+        <v>-3.8948999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>0.27112999999999998</v>
+        <v>3.6267999999999998</v>
       </c>
       <c r="D24">
-        <v>-179.94</v>
+        <v>-4.4008000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,10 +1217,10 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.26017000000000001</v>
+        <v>4.1794000000000002</v>
       </c>
       <c r="D25">
-        <v>-179.94</v>
+        <v>-5.0888999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>0.25004999999999999</v>
+        <v>4.9706000000000001</v>
       </c>
       <c r="D26">
-        <v>-179.94</v>
+        <v>-6.0739999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,10 +1245,10 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>0.24068000000000001</v>
+        <v>6.1909000000000001</v>
       </c>
       <c r="D27">
-        <v>-179.94</v>
+        <v>-7.5914000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>56</v>
       </c>
       <c r="C28">
-        <v>0.23197000000000001</v>
+        <v>8.3013999999999992</v>
       </c>
       <c r="D28">
-        <v>-179.94</v>
+        <v>-10.209</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>58</v>
       </c>
       <c r="C29">
-        <v>0.22384999999999999</v>
+        <v>12.744999999999999</v>
       </c>
       <c r="D29">
-        <v>-179.94</v>
+        <v>-15.717000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,10 +1287,10 @@
         <v>60</v>
       </c>
       <c r="C30">
-        <v>0.21626999999999999</v>
+        <v>26.510999999999999</v>
       </c>
       <c r="D30">
-        <v>-179.94</v>
+        <v>-33.524000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>0.20918</v>
+        <v>43.776000000000003</v>
       </c>
       <c r="D31">
-        <v>-179.94</v>
+        <v>-123.06</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,10 +1315,10 @@
         <v>64</v>
       </c>
       <c r="C32">
-        <v>0.20252000000000001</v>
+        <v>18.831</v>
       </c>
       <c r="D32">
-        <v>-179.94</v>
+        <v>-170.38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,10 +1329,10 @@
         <v>66</v>
       </c>
       <c r="C33">
-        <v>0.19625999999999999</v>
+        <v>6.7582000000000004</v>
       </c>
       <c r="D33">
-        <v>-179.94</v>
+        <v>171.22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>68</v>
       </c>
       <c r="C34">
-        <v>0.19037000000000001</v>
+        <v>4.9284999999999997</v>
       </c>
       <c r="D34">
-        <v>-179.94</v>
+        <v>-175.85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
         <v>70</v>
       </c>
       <c r="C35">
-        <v>0.18479999999999999</v>
+        <v>3.9428000000000001</v>
       </c>
       <c r="D35">
-        <v>-179.94</v>
+        <v>-175.4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,10 +1371,10 @@
         <v>72</v>
       </c>
       <c r="C36">
-        <v>0.17954000000000001</v>
+        <v>3.2233999999999998</v>
       </c>
       <c r="D36">
-        <v>-179.94</v>
+        <v>-175.9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,10 +1385,10 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>0.17455999999999999</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="D37">
-        <v>-179.94</v>
+        <v>-176.41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,10 +1399,10 @@
         <v>76</v>
       </c>
       <c r="C38">
-        <v>0.16983999999999999</v>
+        <v>2.3006000000000002</v>
       </c>
       <c r="D38">
-        <v>-179.94</v>
+        <v>-176.83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,10 +1413,10 @@
         <v>78</v>
       </c>
       <c r="C39">
-        <v>0.16535</v>
+        <v>1.9930000000000001</v>
       </c>
       <c r="D39">
-        <v>-179.94</v>
+        <v>-177.17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,10 +1427,10 @@
         <v>80</v>
       </c>
       <c r="C40">
-        <v>0.16109000000000001</v>
+        <v>1.7482</v>
       </c>
       <c r="D40">
-        <v>-179.94</v>
+        <v>-177.44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,10 +1441,10 @@
         <v>82</v>
       </c>
       <c r="C41">
-        <v>0.15701999999999999</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="D41">
-        <v>-179.94</v>
+        <v>-177.65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,10 +1455,10 @@
         <v>84</v>
       </c>
       <c r="C42">
-        <v>0.15315000000000001</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="D42">
-        <v>-179.94</v>
+        <v>-177.83</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,10 +1469,10 @@
         <v>86</v>
       </c>
       <c r="C43">
-        <v>0.14945</v>
+        <v>1.2452000000000001</v>
       </c>
       <c r="D43">
-        <v>-179.94</v>
+        <v>-177.97</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>0.14591000000000001</v>
+        <v>1.1268</v>
       </c>
       <c r="D44">
-        <v>-179.94</v>
+        <v>-178.09</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
         <v>90</v>
       </c>
       <c r="C45">
-        <v>0.14252000000000001</v>
+        <v>1.0246</v>
       </c>
       <c r="D45">
-        <v>-179.94</v>
+        <v>-178.18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,10 +1511,10 @@
         <v>92</v>
       </c>
       <c r="C46">
-        <v>0.13927999999999999</v>
+        <v>0.93561000000000005</v>
       </c>
       <c r="D46">
-        <v>-179.94</v>
+        <v>-178.26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,10 +1525,10 @@
         <v>94</v>
       </c>
       <c r="C47">
-        <v>0.13617000000000001</v>
+        <v>0.85733000000000004</v>
       </c>
       <c r="D47">
-        <v>-179.94</v>
+        <v>-178.31</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,10 +1539,10 @@
         <v>96</v>
       </c>
       <c r="C48">
-        <v>0.13317999999999999</v>
+        <v>0.78793000000000002</v>
       </c>
       <c r="D48">
-        <v>-179.94</v>
+        <v>-178.36</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,10 +1553,10 @@
         <v>98</v>
       </c>
       <c r="C49">
-        <v>0.13031000000000001</v>
+        <v>0.72594999999999998</v>
       </c>
       <c r="D49">
-        <v>-179.94</v>
+        <v>-178.38</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,10 +1567,10 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.12755</v>
+        <v>0.67022000000000004</v>
       </c>
       <c r="D50">
-        <v>-179.94</v>
+        <v>-178.4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>102</v>
       </c>
       <c r="C51">
-        <v>0.12489</v>
+        <v>0.61980000000000002</v>
       </c>
       <c r="D51">
-        <v>-179.94</v>
+        <v>-178.4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,10 +1595,10 @@
         <v>104</v>
       </c>
       <c r="C52">
-        <v>0.12232999999999999</v>
+        <v>0.57389999999999997</v>
       </c>
       <c r="D52">
-        <v>-179.94</v>
+        <v>-178.39</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,10 +1609,10 @@
         <v>106</v>
       </c>
       <c r="C53">
-        <v>0.11985999999999999</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="D53">
-        <v>-179.94</v>
+        <v>-178.36</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>0.11748</v>
+        <v>0.49324000000000001</v>
       </c>
       <c r="D54">
-        <v>-179.94</v>
+        <v>-178.32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>110</v>
       </c>
       <c r="C55">
-        <v>0.11516999999999999</v>
+        <v>0.45748</v>
       </c>
       <c r="D55">
-        <v>-179.94</v>
+        <v>-178.26</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,10 +1651,10 @@
         <v>112</v>
       </c>
       <c r="C56">
-        <v>0.11294</v>
+        <v>0.42421999999999999</v>
       </c>
       <c r="D56">
-        <v>-179.94</v>
+        <v>-178.18</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,10 +1665,10 @@
         <v>114</v>
       </c>
       <c r="C57">
-        <v>0.11079</v>
+        <v>0.39312000000000002</v>
       </c>
       <c r="D57">
-        <v>-179.94</v>
+        <v>-178.08</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,10 +1679,10 @@
         <v>116</v>
       </c>
       <c r="C58">
-        <v>0.1087</v>
+        <v>0.36387999999999998</v>
       </c>
       <c r="D58">
-        <v>-179.94</v>
+        <v>-177.96</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,10 +1693,10 @@
         <v>118</v>
       </c>
       <c r="C59">
-        <v>0.10668</v>
+        <v>0.33622999999999997</v>
       </c>
       <c r="D59">
-        <v>-179.94</v>
+        <v>-177.79</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,10 +1707,10 @@
         <v>120</v>
       </c>
       <c r="C60">
-        <v>0.10471</v>
+        <v>0.30992999999999998</v>
       </c>
       <c r="D60">
-        <v>-179.94</v>
+        <v>-177.59</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,10 +1721,10 @@
         <v>122</v>
       </c>
       <c r="C61">
-        <v>0.10281</v>
+        <v>0.28475</v>
       </c>
       <c r="D61">
-        <v>-179.94</v>
+        <v>-177.33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>124</v>
       </c>
       <c r="C62">
-        <v>0.10095999999999999</v>
+        <v>0.26046000000000002</v>
       </c>
       <c r="D62">
-        <v>-179.94</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,11 +1748,11 @@
       <c r="B63">
         <v>126</v>
       </c>
-      <c r="C63" s="1">
-        <v>9.9159999999999998E-2</v>
+      <c r="C63">
+        <v>0.23687</v>
       </c>
       <c r="D63">
-        <v>-179.94</v>
+        <v>-176.57</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,11 +1762,11 @@
       <c r="B64">
         <v>128</v>
       </c>
-      <c r="C64" s="1">
-        <v>9.7409999999999997E-2</v>
+      <c r="C64">
+        <v>0.21375</v>
       </c>
       <c r="D64">
-        <v>-179.94</v>
+        <v>-175.99</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,11 +1776,11 @@
       <c r="B65">
         <v>130</v>
       </c>
-      <c r="C65" s="1">
-        <v>9.5707E-2</v>
+      <c r="C65">
+        <v>0.19087999999999999</v>
       </c>
       <c r="D65">
-        <v>-179.94</v>
+        <v>-175.22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,11 +1790,11 @@
       <c r="B66">
         <v>132</v>
       </c>
-      <c r="C66" s="1">
-        <v>9.4048000000000007E-2</v>
+      <c r="C66">
+        <v>0.16802</v>
       </c>
       <c r="D66">
-        <v>-179.94</v>
+        <v>-174.13</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,11 +1804,11 @@
       <c r="B67">
         <v>134</v>
       </c>
-      <c r="C67" s="1">
-        <v>9.2432E-2</v>
+      <c r="C67">
+        <v>0.14491000000000001</v>
       </c>
       <c r="D67">
-        <v>-179.94</v>
+        <v>-172.54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,11 +1818,11 @@
       <c r="B68">
         <v>136</v>
       </c>
-      <c r="C68" s="1">
-        <v>9.0855000000000005E-2</v>
+      <c r="C68">
+        <v>0.12129</v>
       </c>
       <c r="D68">
-        <v>-179.94</v>
+        <v>-170.06</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,10 +1833,10 @@
         <v>138</v>
       </c>
       <c r="C69" s="1">
-        <v>8.9316000000000006E-2</v>
+        <v>9.6979999999999997E-2</v>
       </c>
       <c r="D69">
-        <v>-179.94</v>
+        <v>-165.84</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,10 +1847,10 @@
         <v>140</v>
       </c>
       <c r="C70" s="1">
-        <v>8.7812000000000001E-2</v>
+        <v>7.2160000000000002E-2</v>
       </c>
       <c r="D70">
-        <v>-179.93</v>
+        <v>-157.66</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
         <v>142</v>
       </c>
       <c r="C71" s="1">
-        <v>8.6343000000000003E-2</v>
+        <v>4.9038999999999999E-2</v>
       </c>
       <c r="D71">
-        <v>-179.93</v>
+        <v>-138.52000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,10 +1875,10 @@
         <v>144</v>
       </c>
       <c r="C72" s="1">
-        <v>8.4905999999999995E-2</v>
+        <v>3.9649999999999998E-2</v>
       </c>
       <c r="D72">
-        <v>-179.93</v>
+        <v>-94.057000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,10 +1889,10 @@
         <v>146</v>
       </c>
       <c r="C73" s="1">
-        <v>8.3499000000000004E-2</v>
+        <v>6.1964999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>-179.93</v>
+        <v>-53.493000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,11 +1902,11 @@
       <c r="B74">
         <v>148</v>
       </c>
-      <c r="C74" s="1">
-        <v>8.2122000000000001E-2</v>
+      <c r="C74">
+        <v>0.10730000000000001</v>
       </c>
       <c r="D74">
-        <v>-179.93</v>
+        <v>-37.558</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,11 +1916,11 @@
       <c r="B75">
         <v>150</v>
       </c>
-      <c r="C75" s="1">
-        <v>8.0771999999999997E-2</v>
+      <c r="C75">
+        <v>0.1721</v>
       </c>
       <c r="D75">
-        <v>-179.93</v>
+        <v>-31.783999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,11 +1930,11 @@
       <c r="B76">
         <v>152</v>
       </c>
-      <c r="C76" s="1">
-        <v>7.9448000000000005E-2</v>
+      <c r="C76">
+        <v>0.26496999999999998</v>
       </c>
       <c r="D76">
-        <v>-179.93</v>
+        <v>-30.632000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,11 +1944,11 @@
       <c r="B77">
         <v>154</v>
       </c>
-      <c r="C77" s="1">
-        <v>7.8148999999999996E-2</v>
+      <c r="C77">
+        <v>0.40772000000000003</v>
       </c>
       <c r="D77">
-        <v>-179.93</v>
+        <v>-33.027999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,11 +1958,11 @@
       <c r="B78">
         <v>156</v>
       </c>
-      <c r="C78" s="1">
-        <v>7.6872999999999997E-2</v>
+      <c r="C78">
+        <v>0.65064999999999995</v>
       </c>
       <c r="D78">
-        <v>-179.93</v>
+        <v>-40.33</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,11 +1972,11 @@
       <c r="B79">
         <v>158</v>
       </c>
-      <c r="C79" s="1">
-        <v>7.5619000000000006E-2</v>
+      <c r="C79">
+        <v>1.0955999999999999</v>
       </c>
       <c r="D79">
-        <v>-179.93</v>
+        <v>-58.069000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,11 +1986,11 @@
       <c r="B80">
         <v>160</v>
       </c>
-      <c r="C80" s="1">
-        <v>7.4385000000000007E-2</v>
+      <c r="C80">
+        <v>1.6012999999999999</v>
       </c>
       <c r="D80">
-        <v>-179.93</v>
+        <v>-96.721999999999994</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,11 +2000,11 @@
       <c r="B81">
         <v>162</v>
       </c>
-      <c r="C81" s="1">
-        <v>7.3171E-2</v>
+      <c r="C81">
+        <v>1.3694999999999999</v>
       </c>
       <c r="D81">
-        <v>-179.93</v>
+        <v>-136.71</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,11 +2014,11 @@
       <c r="B82">
         <v>164</v>
       </c>
-      <c r="C82" s="1">
-        <v>7.1974999999999997E-2</v>
+      <c r="C82">
+        <v>1.0066999999999999</v>
       </c>
       <c r="D82">
-        <v>-179.93</v>
+        <v>-156.52000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,11 +2028,11 @@
       <c r="B83">
         <v>166</v>
       </c>
-      <c r="C83" s="1">
-        <v>7.0796999999999999E-2</v>
+      <c r="C83">
+        <v>0.79896999999999996</v>
       </c>
       <c r="D83">
-        <v>-179.93</v>
+        <v>-166.78</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,11 +2042,11 @@
       <c r="B84">
         <v>168</v>
       </c>
-      <c r="C84" s="1">
-        <v>6.9634000000000001E-2</v>
+      <c r="C84">
+        <v>0.68644000000000005</v>
       </c>
       <c r="D84">
-        <v>-179.93</v>
+        <v>-174.32</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,11 +2056,11 @@
       <c r="B85">
         <v>170</v>
       </c>
-      <c r="C85" s="1">
-        <v>6.8487000000000006E-2</v>
+      <c r="C85">
+        <v>0.62436999999999998</v>
       </c>
       <c r="D85">
-        <v>-179.93</v>
+        <v>177.18</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,11 +2070,11 @@
       <c r="B86">
         <v>172</v>
       </c>
-      <c r="C86" s="1">
-        <v>6.7352999999999996E-2</v>
+      <c r="C86">
+        <v>0.58579999999999999</v>
       </c>
       <c r="D86">
-        <v>-179.93</v>
+        <v>164.78</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,11 +2084,11 @@
       <c r="B87">
         <v>174</v>
       </c>
-      <c r="C87" s="1">
-        <v>6.6231999999999999E-2</v>
+      <c r="C87">
+        <v>0.50353999999999999</v>
       </c>
       <c r="D87">
-        <v>-179.93</v>
+        <v>141.04</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,11 +2098,11 @@
       <c r="B88">
         <v>176</v>
       </c>
-      <c r="C88" s="1">
-        <v>6.5121999999999999E-2</v>
+      <c r="C88">
+        <v>0.27089000000000002</v>
       </c>
       <c r="D88">
-        <v>-179.93</v>
+        <v>120.09</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,11 +2112,11 @@
       <c r="B89">
         <v>178</v>
       </c>
-      <c r="C89" s="1">
-        <v>6.4023999999999998E-2</v>
+      <c r="C89">
+        <v>0.13541</v>
       </c>
       <c r="D89">
-        <v>-179.92</v>
+        <v>134.04</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,11 +2126,11 @@
       <c r="B90">
         <v>180</v>
       </c>
-      <c r="C90" s="1">
-        <v>6.2934000000000004E-2</v>
+      <c r="C90">
+        <v>0.11079</v>
       </c>
       <c r="D90">
-        <v>-179.92</v>
+        <v>159.06</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,11 +2140,11 @@
       <c r="B91">
         <v>182</v>
       </c>
-      <c r="C91" s="1">
-        <v>6.1853999999999999E-2</v>
+      <c r="C91">
+        <v>0.11104</v>
       </c>
       <c r="D91">
-        <v>-179.92</v>
+        <v>171.84</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2154,11 +2154,11 @@
       <c r="B92">
         <v>184</v>
       </c>
-      <c r="C92" s="1">
-        <v>6.0781000000000002E-2</v>
+      <c r="C92">
+        <v>0.11088000000000001</v>
       </c>
       <c r="D92">
-        <v>-179.92</v>
+        <v>177.57</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,11 +2168,11 @@
       <c r="B93">
         <v>186</v>
       </c>
-      <c r="C93" s="1">
-        <v>5.9714999999999997E-2</v>
+      <c r="C93">
+        <v>0.10804999999999999</v>
       </c>
       <c r="D93">
-        <v>-179.92</v>
+        <v>-179.47</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2182,11 +2182,11 @@
       <c r="B94">
         <v>188</v>
       </c>
-      <c r="C94" s="1">
-        <v>5.8653999999999998E-2</v>
+      <c r="C94">
+        <v>0.10333000000000001</v>
       </c>
       <c r="D94">
-        <v>-179.92</v>
+        <v>-177.68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,10 +2197,10 @@
         <v>190</v>
       </c>
       <c r="C95" s="1">
-        <v>5.7598000000000003E-2</v>
+        <v>9.7455E-2</v>
       </c>
       <c r="D95">
-        <v>-179.92</v>
+        <v>-176.41</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,10 +2211,10 @@
         <v>192</v>
       </c>
       <c r="C96" s="1">
-        <v>5.6544999999999998E-2</v>
+        <v>9.0928999999999996E-2</v>
       </c>
       <c r="D96">
-        <v>-179.92</v>
+        <v>-175.37</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,10 +2225,10 @@
         <v>194</v>
       </c>
       <c r="C97" s="1">
-        <v>5.5495000000000003E-2</v>
+        <v>8.4051000000000001E-2</v>
       </c>
       <c r="D97">
-        <v>-179.92</v>
+        <v>-174.4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,10 +2239,10 @@
         <v>196</v>
       </c>
       <c r="C98" s="1">
-        <v>5.4446000000000001E-2</v>
+        <v>7.7004000000000003E-2</v>
       </c>
       <c r="D98">
-        <v>-179.92</v>
+        <v>-173.4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,10 +2253,10 @@
         <v>198</v>
       </c>
       <c r="C99" s="1">
-        <v>5.3398000000000001E-2</v>
+        <v>6.9897000000000001E-2</v>
       </c>
       <c r="D99">
-        <v>-179.91</v>
+        <v>-172.27</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,10 +2267,10 @@
         <v>200</v>
       </c>
       <c r="C100" s="1">
-        <v>5.2347999999999999E-2</v>
+        <v>6.2798000000000007E-2</v>
       </c>
       <c r="D100">
-        <v>-179.91</v>
+        <v>-170.94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,10 +2281,10 @@
         <v>202</v>
       </c>
       <c r="C101" s="1">
-        <v>5.1297000000000002E-2</v>
+        <v>5.5751000000000002E-2</v>
       </c>
       <c r="D101">
-        <v>-179.91</v>
+        <v>-169.28</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,10 +2295,10 @@
         <v>204</v>
       </c>
       <c r="C102" s="1">
-        <v>5.0242000000000002E-2</v>
+        <v>4.879E-2</v>
       </c>
       <c r="D102">
-        <v>-179.91</v>
+        <v>-167.14</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,10 +2309,10 @@
         <v>206</v>
       </c>
       <c r="C103" s="1">
-        <v>4.9182999999999998E-2</v>
+        <v>4.1954999999999999E-2</v>
       </c>
       <c r="D103">
-        <v>-179.91</v>
+        <v>-164.25</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,10 +2323,10 @@
         <v>208</v>
       </c>
       <c r="C104" s="1">
-        <v>4.8118000000000001E-2</v>
+        <v>3.5302E-2</v>
       </c>
       <c r="D104">
-        <v>-179.91</v>
+        <v>-160.19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,10 +2337,10 @@
         <v>210</v>
       </c>
       <c r="C105" s="1">
-        <v>4.7046999999999999E-2</v>
+        <v>2.8943E-2</v>
       </c>
       <c r="D105">
-        <v>-179.91</v>
+        <v>-154.18</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,10 +2351,10 @@
         <v>212</v>
       </c>
       <c r="C106" s="1">
-        <v>4.5966E-2</v>
+        <v>2.3119000000000001E-2</v>
       </c>
       <c r="D106">
-        <v>-179.9</v>
+        <v>-144.79</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,10 +2365,10 @@
         <v>214</v>
       </c>
       <c r="C107" s="1">
-        <v>4.4875999999999999E-2</v>
+        <v>1.8362E-2</v>
       </c>
       <c r="D107">
-        <v>-179.9</v>
+        <v>-129.59</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,10 +2379,10 @@
         <v>216</v>
       </c>
       <c r="C108" s="1">
-        <v>4.3775000000000001E-2</v>
+        <v>1.5741000000000002E-2</v>
       </c>
       <c r="D108">
-        <v>-179.9</v>
+        <v>-106.5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2393,10 +2393,10 @@
         <v>218</v>
       </c>
       <c r="C109" s="1">
-        <v>4.2659999999999997E-2</v>
+        <v>1.6423E-2</v>
       </c>
       <c r="D109">
-        <v>-179.9</v>
+        <v>-80.102000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,10 +2407,10 @@
         <v>220</v>
       </c>
       <c r="C110" s="1">
-        <v>4.1530999999999998E-2</v>
+        <v>2.0206999999999999E-2</v>
       </c>
       <c r="D110">
-        <v>-179.9</v>
+        <v>-59.668999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,10 +2421,10 @@
         <v>222</v>
       </c>
       <c r="C111" s="1">
-        <v>4.0384999999999997E-2</v>
+        <v>2.5904E-2</v>
       </c>
       <c r="D111">
-        <v>-179.89</v>
+        <v>-46.914000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,10 +2435,10 @@
         <v>224</v>
       </c>
       <c r="C112" s="1">
-        <v>3.9220999999999999E-2</v>
+        <v>3.2681000000000002E-2</v>
       </c>
       <c r="D112">
-        <v>-179.89</v>
+        <v>-39.220999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,10 +2449,10 @@
         <v>226</v>
       </c>
       <c r="C113" s="1">
-        <v>3.8036E-2</v>
+        <v>4.0161000000000002E-2</v>
       </c>
       <c r="D113">
-        <v>-179.89</v>
+        <v>-34.503</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,10 +2463,10 @@
         <v>228</v>
       </c>
       <c r="C114" s="1">
-        <v>3.6828E-2</v>
+        <v>4.8198999999999999E-2</v>
       </c>
       <c r="D114">
-        <v>-179.88</v>
+        <v>-31.617999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,10 +2477,10 @@
         <v>230</v>
       </c>
       <c r="C115" s="1">
-        <v>3.5595000000000002E-2</v>
+        <v>5.6760999999999999E-2</v>
       </c>
       <c r="D115">
-        <v>-179.88</v>
+        <v>-29.975000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,10 +2491,10 @@
         <v>232</v>
       </c>
       <c r="C116" s="1">
-        <v>3.4334999999999997E-2</v>
+        <v>6.5862000000000004E-2</v>
       </c>
       <c r="D116">
-        <v>-179.88</v>
+        <v>-29.285</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,10 +2505,10 @@
         <v>234</v>
       </c>
       <c r="C117" s="1">
-        <v>3.3043000000000003E-2</v>
+        <v>7.5546000000000002E-2</v>
       </c>
       <c r="D117">
-        <v>-179.87</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,10 +2519,10 @@
         <v>236</v>
       </c>
       <c r="C118" s="1">
-        <v>3.1718999999999997E-2</v>
+        <v>8.5851999999999998E-2</v>
       </c>
       <c r="D118">
-        <v>-179.87</v>
+        <v>-30.478999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,10 +2533,10 @@
         <v>238</v>
       </c>
       <c r="C119" s="1">
-        <v>3.0356999999999999E-2</v>
+        <v>9.6751000000000004E-2</v>
       </c>
       <c r="D119">
-        <v>-179.86</v>
+        <v>-32.606000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,11 +2546,11 @@
       <c r="B120">
         <v>240</v>
       </c>
-      <c r="C120" s="1">
-        <v>2.8955000000000002E-2</v>
+      <c r="C120">
+        <v>0.10792</v>
       </c>
       <c r="D120">
-        <v>-179.85</v>
+        <v>-36.289000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,11 +2560,11 @@
       <c r="B121">
         <v>242</v>
       </c>
-      <c r="C121" s="1">
-        <v>2.7508999999999999E-2</v>
+      <c r="C121">
+        <v>0.11799999999999999</v>
       </c>
       <c r="D121">
-        <v>-179.85</v>
+        <v>-42.48</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,11 +2574,11 @@
       <c r="B122">
         <v>244</v>
       </c>
-      <c r="C122" s="1">
-        <v>2.6013999999999999E-2</v>
+      <c r="C122">
+        <v>0.12182999999999999</v>
       </c>
       <c r="D122">
-        <v>-179.84</v>
+        <v>-52.960999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,11 +2588,11 @@
       <c r="B123">
         <v>246</v>
       </c>
-      <c r="C123" s="1">
-        <v>2.4466000000000002E-2</v>
+      <c r="C123">
+        <v>0.10332</v>
       </c>
       <c r="D123">
-        <v>-179.83</v>
+        <v>-69.192999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,10 +2603,10 @@
         <v>248</v>
       </c>
       <c r="C124" s="1">
-        <v>2.2859000000000001E-2</v>
+        <v>4.7169000000000003E-2</v>
       </c>
       <c r="D124">
-        <v>-179.82</v>
+        <v>-73.744</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,10 +2617,10 @@
         <v>250</v>
       </c>
       <c r="C125" s="1">
-        <v>2.1187999999999999E-2</v>
+        <v>4.9061E-2</v>
       </c>
       <c r="D125">
-        <v>-179.8</v>
+        <v>5.2050999999999998</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,10 +2631,10 @@
         <v>252</v>
       </c>
       <c r="C126" s="1">
-        <v>1.9446000000000001E-2</v>
+        <v>9.9739999999999995E-2</v>
       </c>
       <c r="D126">
-        <v>-179.79</v>
+        <v>9.6275999999999993</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,11 +2644,11 @@
       <c r="B127">
         <v>254</v>
       </c>
-      <c r="C127" s="1">
-        <v>1.7625999999999999E-2</v>
+      <c r="C127">
+        <v>0.14072000000000001</v>
       </c>
       <c r="D127">
-        <v>-179.76</v>
+        <v>4.5486000000000004</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,11 +2658,11 @@
       <c r="B128">
         <v>256</v>
       </c>
-      <c r="C128" s="1">
-        <v>1.5720000000000001E-2</v>
+      <c r="C128">
+        <v>0.17751</v>
       </c>
       <c r="D128">
-        <v>-179.74</v>
+        <v>-0.46306999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,11 +2672,11 @@
       <c r="B129">
         <v>258</v>
       </c>
-      <c r="C129" s="1">
-        <v>1.3719E-2</v>
+      <c r="C129">
+        <v>0.21539</v>
       </c>
       <c r="D129">
-        <v>-179.7</v>
+        <v>-5.2552000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,11 +2686,11 @@
       <c r="B130">
         <v>260</v>
       </c>
-      <c r="C130" s="1">
-        <v>1.1612000000000001E-2</v>
+      <c r="C130">
+        <v>0.25858999999999999</v>
       </c>
       <c r="D130">
-        <v>-179.64</v>
+        <v>-10.428000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,11 +2700,11 @@
       <c r="B131">
         <v>262</v>
       </c>
-      <c r="C131" s="1">
-        <v>9.3889000000000004E-3</v>
+      <c r="C131">
+        <v>0.31154999999999999</v>
       </c>
       <c r="D131">
-        <v>-179.56</v>
+        <v>-16.864000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,11 +2714,11 @@
       <c r="B132">
         <v>264</v>
       </c>
-      <c r="C132" s="1">
-        <v>7.0353999999999998E-3</v>
+      <c r="C132">
+        <v>0.37869999999999998</v>
       </c>
       <c r="D132">
-        <v>-179.41</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,11 +2728,11 @@
       <c r="B133">
         <v>266</v>
       </c>
-      <c r="C133" s="1">
-        <v>4.5369E-3</v>
+      <c r="C133">
+        <v>0.45756000000000002</v>
       </c>
       <c r="D133">
-        <v>-179.08</v>
+        <v>-40.277999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,11 +2742,11 @@
       <c r="B134">
         <v>268</v>
       </c>
-      <c r="C134" s="1">
-        <v>1.8763E-3</v>
+      <c r="C134">
+        <v>0.50893999999999995</v>
       </c>
       <c r="D134">
-        <v>-177.78</v>
+        <v>-62.289000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,11 +2756,11 @@
       <c r="B135">
         <v>270</v>
       </c>
-      <c r="C135" s="1">
-        <v>9.7198E-4</v>
+      <c r="C135">
+        <v>0.45283000000000001</v>
       </c>
       <c r="D135">
-        <v>-4.2869000000000002</v>
+        <v>-88.364999999999995</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,11 +2770,11 @@
       <c r="B136">
         <v>272</v>
       </c>
-      <c r="C136" s="1">
-        <v>4.0201000000000004E-3</v>
+      <c r="C136">
+        <v>0.32173000000000002</v>
       </c>
       <c r="D136">
-        <v>-1.0367999999999999</v>
+        <v>-107.81</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,11 +2784,11 @@
       <c r="B137">
         <v>274</v>
       </c>
-      <c r="C137" s="1">
-        <v>7.3035000000000001E-3</v>
+      <c r="C137">
+        <v>0.20573</v>
       </c>
       <c r="D137">
-        <v>-0.57150000000000001</v>
+        <v>-116.86</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,11 +2798,11 @@
       <c r="B138">
         <v>276</v>
       </c>
-      <c r="C138" s="1">
-        <v>1.0853E-2</v>
+      <c r="C138">
+        <v>0.12382</v>
       </c>
       <c r="D138">
-        <v>-0.38529999999999998</v>
+        <v>-115.65</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
         <v>278</v>
       </c>
       <c r="C139" s="1">
-        <v>1.4706E-2</v>
+        <v>7.1399000000000004E-2</v>
       </c>
       <c r="D139">
-        <v>-0.28498000000000001</v>
+        <v>-98.894999999999996</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>280</v>
       </c>
       <c r="C140" s="1">
-        <v>1.8908000000000001E-2</v>
+        <v>5.3959E-2</v>
       </c>
       <c r="D140">
-        <v>-0.22222</v>
+        <v>-58.255000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2841,10 @@
         <v>282</v>
       </c>
       <c r="C141" s="1">
-        <v>2.3515000000000001E-2</v>
+        <v>7.1231000000000003E-2</v>
       </c>
       <c r="D141">
-        <v>-0.17923</v>
+        <v>-25.077999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,11 +2854,11 @@
       <c r="B142">
         <v>284</v>
       </c>
-      <c r="C142" s="1">
-        <v>2.8594000000000001E-2</v>
+      <c r="C142">
+        <v>0.10031</v>
       </c>
       <c r="D142">
-        <v>-0.14793000000000001</v>
+        <v>-11.285</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,11 +2868,11 @@
       <c r="B143">
         <v>286</v>
       </c>
-      <c r="C143" s="1">
-        <v>3.4227E-2</v>
+      <c r="C143">
+        <v>0.13166</v>
       </c>
       <c r="D143">
-        <v>-0.12411</v>
+        <v>-5.3006000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,11 +2882,11 @@
       <c r="B144">
         <v>288</v>
       </c>
-      <c r="C144" s="1">
-        <v>4.0516999999999997E-2</v>
+      <c r="C144">
+        <v>0.16384000000000001</v>
       </c>
       <c r="D144">
-        <v>-0.10536</v>
+        <v>-2.3195000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,11 +2896,11 @@
       <c r="B145">
         <v>290</v>
       </c>
-      <c r="C145" s="1">
-        <v>4.7592000000000002E-2</v>
-      </c>
-      <c r="D145" s="1">
-        <v>-9.0214000000000003E-2</v>
+      <c r="C145">
+        <v>0.19717999999999999</v>
+      </c>
+      <c r="D145">
+        <v>-0.68183000000000005</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,11 +2910,11 @@
       <c r="B146">
         <v>292</v>
       </c>
-      <c r="C146" s="1">
-        <v>5.5618000000000001E-2</v>
-      </c>
-      <c r="D146" s="1">
-        <v>-7.7713000000000004E-2</v>
+      <c r="C146">
+        <v>0.2324</v>
+      </c>
+      <c r="D146">
+        <v>0.27772999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,11 +2924,11 @@
       <c r="B147">
         <v>294</v>
       </c>
-      <c r="C147" s="1">
-        <v>6.4808000000000004E-2</v>
-      </c>
-      <c r="D147" s="1">
-        <v>-6.7214999999999997E-2</v>
+      <c r="C147">
+        <v>0.27044000000000001</v>
+      </c>
+      <c r="D147">
+        <v>0.86426000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,11 +2938,11 @@
       <c r="B148">
         <v>296</v>
       </c>
-      <c r="C148" s="1">
-        <v>7.5447E-2</v>
-      </c>
-      <c r="D148" s="1">
-        <v>-5.8270000000000002E-2</v>
+      <c r="C148">
+        <v>0.31242999999999999</v>
+      </c>
+      <c r="D148">
+        <v>1.2325999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,11 +2952,11 @@
       <c r="B149">
         <v>298</v>
       </c>
-      <c r="C149" s="1">
-        <v>8.7917999999999996E-2</v>
-      </c>
-      <c r="D149" s="1">
-        <v>-5.0554000000000002E-2</v>
+      <c r="C149">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="D149">
+        <v>1.4678</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,10 +2967,10 @@
         <v>300</v>
       </c>
       <c r="C150">
-        <v>0.10274999999999999</v>
-      </c>
-      <c r="D150" s="1">
-        <v>-4.3825999999999997E-2</v>
+        <v>0.41443999999999998</v>
+      </c>
+      <c r="D150">
+        <v>1.6193</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,10 +2981,10 @@
         <v>302</v>
       </c>
       <c r="C151">
-        <v>0.1207</v>
-      </c>
-      <c r="D151" s="1">
-        <v>-3.7907000000000003E-2</v>
+        <v>0.47894999999999999</v>
+      </c>
+      <c r="D151">
+        <v>1.7174</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,10 +2995,10 @@
         <v>304</v>
       </c>
       <c r="C152">
-        <v>0.14288000000000001</v>
-      </c>
-      <c r="D152" s="1">
-        <v>-3.2656999999999999E-2</v>
+        <v>0.55713000000000001</v>
+      </c>
+      <c r="D152">
+        <v>1.7816000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,10 +3009,10 @@
         <v>306</v>
       </c>
       <c r="C153">
-        <v>0.17102000000000001</v>
-      </c>
-      <c r="D153" s="1">
-        <v>-2.7970999999999999E-2</v>
+        <v>0.65471999999999997</v>
+      </c>
+      <c r="D153">
+        <v>1.8247</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>308</v>
       </c>
       <c r="C154">
-        <v>0.20791000000000001</v>
-      </c>
-      <c r="D154" s="1">
-        <v>-2.3765000000000001E-2</v>
+        <v>0.78107000000000004</v>
+      </c>
+      <c r="D154">
+        <v>1.8556999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>310</v>
       </c>
       <c r="C155">
-        <v>0.25841999999999998</v>
-      </c>
-      <c r="D155" s="1">
-        <v>-1.9975E-2</v>
+        <v>0.95235000000000003</v>
+      </c>
+      <c r="D155">
+        <v>1.8815</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,10 +3051,10 @@
         <v>312</v>
       </c>
       <c r="C156">
-        <v>0.33187</v>
-      </c>
-      <c r="D156" s="1">
-        <v>-1.6556000000000001E-2</v>
+        <v>1.1994</v>
+      </c>
+      <c r="D156">
+        <v>1.9071</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,10 +3065,10 @@
         <v>314</v>
       </c>
       <c r="C157">
-        <v>0.44856000000000001</v>
-      </c>
-      <c r="D157" s="1">
-        <v>-1.3486E-2</v>
+        <v>1.5894999999999999</v>
+      </c>
+      <c r="D157">
+        <v>1.9372</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,10 +3079,10 @@
         <v>316</v>
       </c>
       <c r="C158">
-        <v>0.66271000000000002</v>
-      </c>
-      <c r="D158" s="1">
-        <v>-1.0794E-2</v>
+        <v>2.3022</v>
+      </c>
+      <c r="D158">
+        <v>1.976</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,10 +3093,10 @@
         <v>318</v>
       </c>
       <c r="C159">
-        <v>1.1845000000000001</v>
-      </c>
-      <c r="D159" s="1">
-        <v>-8.7019000000000003E-3</v>
+        <v>4.0331999999999999</v>
+      </c>
+      <c r="D159">
+        <v>2.0280999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,10 +3107,10 @@
         <v>320</v>
       </c>
       <c r="C160">
-        <v>4.3731</v>
-      </c>
-      <c r="D160" s="1">
-        <v>-1.0052E-2</v>
+        <v>14.59</v>
+      </c>
+      <c r="D160">
+        <v>2.0960999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,10 +3121,10 @@
         <v>322</v>
       </c>
       <c r="C161">
-        <v>2.9138000000000002</v>
+        <v>9.5220000000000002</v>
       </c>
       <c r="D161">
-        <v>-180</v>
+        <v>-177.8</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,10 +3135,10 @@
         <v>324</v>
       </c>
       <c r="C162">
-        <v>1.1415</v>
+        <v>3.6518000000000002</v>
       </c>
       <c r="D162">
-        <v>-180</v>
+        <v>-177.67</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,10 +3149,10 @@
         <v>326</v>
       </c>
       <c r="C163">
-        <v>0.72780999999999996</v>
+        <v>2.2780999999999998</v>
       </c>
       <c r="D163">
-        <v>-180</v>
+        <v>-177.48</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,10 +3163,10 @@
         <v>328</v>
       </c>
       <c r="C164">
-        <v>0.54335</v>
+        <v>1.6624000000000001</v>
       </c>
       <c r="D164">
-        <v>-180</v>
+        <v>-177.23</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,10 +3177,10 @@
         <v>330</v>
       </c>
       <c r="C165">
-        <v>0.43889</v>
+        <v>1.3110999999999999</v>
       </c>
       <c r="D165">
-        <v>-179.99</v>
+        <v>-176.88</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>332</v>
       </c>
       <c r="C166">
-        <v>0.37165999999999999</v>
+        <v>1.0824</v>
       </c>
       <c r="D166">
-        <v>-179.99</v>
+        <v>-176.39</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,10 +3205,10 @@
         <v>334</v>
       </c>
       <c r="C167">
-        <v>0.32473999999999997</v>
+        <v>0.92035999999999996</v>
       </c>
       <c r="D167">
-        <v>-179.99</v>
+        <v>-175.67</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,10 +3219,10 @@
         <v>336</v>
       </c>
       <c r="C168">
-        <v>0.29014000000000001</v>
+        <v>0.79869999999999997</v>
       </c>
       <c r="D168">
-        <v>-179.99</v>
+        <v>-174.6</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,10 +3233,10 @@
         <v>338</v>
       </c>
       <c r="C169">
-        <v>0.26356000000000002</v>
+        <v>0.70391999999999999</v>
       </c>
       <c r="D169">
-        <v>-179.99</v>
+        <v>-172.97</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,10 +3247,10 @@
         <v>340</v>
       </c>
       <c r="C170">
-        <v>0.24249999999999999</v>
+        <v>0.62994000000000006</v>
       </c>
       <c r="D170">
-        <v>-179.99</v>
+        <v>-170.42</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,10 +3261,10 @@
         <v>342</v>
       </c>
       <c r="C171">
-        <v>0.22539999999999999</v>
+        <v>0.57754000000000005</v>
       </c>
       <c r="D171">
-        <v>-179.99</v>
+        <v>-166.52</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,10 +3275,10 @@
         <v>344</v>
       </c>
       <c r="C172">
-        <v>0.21124000000000001</v>
+        <v>0.55635999999999997</v>
       </c>
       <c r="D172">
-        <v>-179.98</v>
+        <v>-161.43</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,10 +3289,10 @@
         <v>346</v>
       </c>
       <c r="C173">
-        <v>0.19932</v>
+        <v>0.57798000000000005</v>
       </c>
       <c r="D173">
-        <v>-179.98</v>
+        <v>-157.57</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,10 +3303,10 @@
         <v>348</v>
       </c>
       <c r="C174">
-        <v>0.18915000000000001</v>
+        <v>0.62121999999999999</v>
       </c>
       <c r="D174">
-        <v>-179.98</v>
+        <v>-158.63999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,10 +3317,10 @@
         <v>350</v>
       </c>
       <c r="C175">
-        <v>0.18035999999999999</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="D175">
-        <v>-179.98</v>
+        <v>-163.5</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,10 +3331,10 @@
         <v>352</v>
       </c>
       <c r="C176">
-        <v>0.17269000000000001</v>
+        <v>0.61397999999999997</v>
       </c>
       <c r="D176">
-        <v>-179.98</v>
+        <v>-168.23</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,10 +3345,10 @@
         <v>354</v>
       </c>
       <c r="C177">
-        <v>0.16594999999999999</v>
+        <v>0.58016000000000001</v>
       </c>
       <c r="D177">
-        <v>-179.98</v>
+        <v>-171.54</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,10 +3359,10 @@
         <v>356</v>
       </c>
       <c r="C178">
-        <v>0.15997</v>
+        <v>0.54637999999999998</v>
       </c>
       <c r="D178">
-        <v>-179.98</v>
+        <v>-173.82</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,10 +3373,10 @@
         <v>358</v>
       </c>
       <c r="C179">
-        <v>0.15464</v>
+        <v>0.51510999999999996</v>
       </c>
       <c r="D179">
-        <v>-179.98</v>
+        <v>-175.45</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,10 +3387,10 @@
         <v>360</v>
       </c>
       <c r="C180">
-        <v>0.14984</v>
+        <v>0.48702000000000001</v>
       </c>
       <c r="D180">
-        <v>-179.98</v>
+        <v>-176.6</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,10 +3401,10 @@
         <v>362</v>
       </c>
       <c r="C181">
-        <v>0.14552000000000001</v>
+        <v>0.46235999999999999</v>
       </c>
       <c r="D181">
-        <v>-179.97</v>
+        <v>-177.4</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,10 +3415,10 @@
         <v>364</v>
       </c>
       <c r="C182">
-        <v>0.14158999999999999</v>
+        <v>0.44080999999999998</v>
       </c>
       <c r="D182">
-        <v>-179.97</v>
+        <v>-177.97</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,10 +3429,10 @@
         <v>366</v>
       </c>
       <c r="C183">
-        <v>0.13800999999999999</v>
+        <v>0.42192000000000002</v>
       </c>
       <c r="D183">
-        <v>-179.97</v>
+        <v>-178.41</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,10 +3443,10 @@
         <v>368</v>
       </c>
       <c r="C184">
-        <v>0.13474</v>
+        <v>0.40525</v>
       </c>
       <c r="D184">
-        <v>-179.97</v>
+        <v>-178.75</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,10 +3457,10 @@
         <v>370</v>
       </c>
       <c r="C185">
-        <v>0.13174</v>
+        <v>0.39044000000000001</v>
       </c>
       <c r="D185">
-        <v>-179.97</v>
+        <v>-179.03</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,10 +3471,10 @@
         <v>372</v>
       </c>
       <c r="C186">
-        <v>0.12897</v>
+        <v>0.37720999999999999</v>
       </c>
       <c r="D186">
-        <v>-179.97</v>
+        <v>-179.26</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,10 +3485,10 @@
         <v>374</v>
       </c>
       <c r="C187">
-        <v>0.12642</v>
+        <v>0.36534</v>
       </c>
       <c r="D187">
-        <v>-179.97</v>
+        <v>-179.47</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,10 +3499,10 @@
         <v>376</v>
       </c>
       <c r="C188">
-        <v>0.12404999999999999</v>
+        <v>0.35463</v>
       </c>
       <c r="D188">
-        <v>-179.97</v>
+        <v>-179.65</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,10 +3513,10 @@
         <v>378</v>
       </c>
       <c r="C189">
-        <v>0.12186</v>
+        <v>0.34495999999999999</v>
       </c>
       <c r="D189">
-        <v>-179.97</v>
+        <v>-179.83</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,10 +3527,10 @@
         <v>380</v>
       </c>
       <c r="C190">
-        <v>0.11981</v>
+        <v>0.3362</v>
       </c>
       <c r="D190">
-        <v>-179.97</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,10 +3541,10 @@
         <v>382</v>
       </c>
       <c r="C191">
-        <v>0.1179</v>
+        <v>0.32828000000000002</v>
       </c>
       <c r="D191">
-        <v>-179.97</v>
+        <v>179.83</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,10 +3555,10 @@
         <v>384</v>
       </c>
       <c r="C192">
-        <v>0.11612</v>
+        <v>0.32111000000000001</v>
       </c>
       <c r="D192">
-        <v>-179.97</v>
+        <v>179.65</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,10 +3569,10 @@
         <v>386</v>
       </c>
       <c r="C193">
-        <v>0.11446000000000001</v>
+        <v>0.31463999999999998</v>
       </c>
       <c r="D193">
-        <v>-179.97</v>
+        <v>179.46</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,10 +3583,10 @@
         <v>388</v>
       </c>
       <c r="C194">
-        <v>0.11289</v>
+        <v>0.30884</v>
       </c>
       <c r="D194">
-        <v>-179.96</v>
+        <v>179.26</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,10 +3597,10 @@
         <v>390</v>
       </c>
       <c r="C195">
-        <v>0.11143</v>
+        <v>0.30367</v>
       </c>
       <c r="D195">
-        <v>-179.96</v>
+        <v>179.04</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,10 +3611,10 @@
         <v>392</v>
       </c>
       <c r="C196">
-        <v>0.11005</v>
+        <v>0.29912</v>
       </c>
       <c r="D196">
-        <v>-179.96</v>
+        <v>178.79</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,10 +3625,10 @@
         <v>394</v>
       </c>
       <c r="C197">
-        <v>0.10875</v>
+        <v>0.29518</v>
       </c>
       <c r="D197">
-        <v>-179.96</v>
+        <v>178.51</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3639,10 +3639,10 @@
         <v>396</v>
       </c>
       <c r="C198">
-        <v>0.10752</v>
+        <v>0.29187000000000002</v>
       </c>
       <c r="D198">
-        <v>-179.96</v>
+        <v>178.19</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,10 +3653,10 @@
         <v>398</v>
       </c>
       <c r="C199">
-        <v>0.10637000000000001</v>
+        <v>0.28921000000000002</v>
       </c>
       <c r="D199">
-        <v>-179.96</v>
+        <v>177.8</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,10 +3667,10 @@
         <v>400</v>
       </c>
       <c r="C200">
-        <v>0.10528</v>
+        <v>0.28722999999999999</v>
       </c>
       <c r="D200">
-        <v>-179.96</v>
+        <v>177.34</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,10 +3681,10 @@
         <v>402</v>
       </c>
       <c r="C201">
-        <v>0.10425</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D201">
-        <v>-179.96</v>
+        <v>176.78</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,10 +3695,10 @@
         <v>404</v>
       </c>
       <c r="C202">
-        <v>0.10328</v>
+        <v>0.28560000000000002</v>
       </c>
       <c r="D202">
-        <v>-179.96</v>
+        <v>176.07</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,10 +3709,10 @@
         <v>406</v>
       </c>
       <c r="C203">
-        <v>0.10236000000000001</v>
+        <v>0.28611999999999999</v>
       </c>
       <c r="D203">
-        <v>-179.96</v>
+        <v>175.18</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,10 +3723,10 @@
         <v>408</v>
       </c>
       <c r="C204">
-        <v>0.10149</v>
+        <v>0.28766999999999998</v>
       </c>
       <c r="D204">
-        <v>-179.96</v>
+        <v>174.02</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3737,10 +3737,10 @@
         <v>410</v>
       </c>
       <c r="C205">
-        <v>0.10066</v>
+        <v>0.29033999999999999</v>
       </c>
       <c r="D205">
-        <v>-179.96</v>
+        <v>172.47</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,11 +3750,11 @@
       <c r="B206">
         <v>412</v>
       </c>
-      <c r="C206" s="1">
-        <v>9.9880999999999998E-2</v>
+      <c r="C206">
+        <v>0.29410999999999998</v>
       </c>
       <c r="D206">
-        <v>-179.96</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,11 +3764,11 @@
       <c r="B207">
         <v>414</v>
       </c>
-      <c r="C207" s="1">
-        <v>9.9140000000000006E-2</v>
+      <c r="C207">
+        <v>0.29855999999999999</v>
       </c>
       <c r="D207">
-        <v>-179.96</v>
+        <v>167.43</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,11 +3778,11 @@
       <c r="B208">
         <v>416</v>
       </c>
-      <c r="C208" s="1">
-        <v>9.8437999999999998E-2</v>
+      <c r="C208">
+        <v>0.30229</v>
       </c>
       <c r="D208">
-        <v>-179.96</v>
+        <v>163.30000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,11 +3792,11 @@
       <c r="B209">
         <v>418</v>
       </c>
-      <c r="C209" s="1">
-        <v>9.7772999999999999E-2</v>
+      <c r="C209">
+        <v>0.30163000000000001</v>
       </c>
       <c r="D209">
-        <v>-179.96</v>
+        <v>157.61000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,11 +3806,11 @@
       <c r="B210">
         <v>420</v>
       </c>
-      <c r="C210" s="1">
-        <v>9.7142999999999993E-2</v>
+      <c r="C210">
+        <v>0.29019</v>
       </c>
       <c r="D210">
-        <v>-179.95</v>
+        <v>150.55000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,11 +3820,11 @@
       <c r="B211">
         <v>422</v>
       </c>
-      <c r="C211" s="1">
-        <v>9.6545000000000006E-2</v>
+      <c r="C211">
+        <v>0.26405000000000001</v>
       </c>
       <c r="D211">
-        <v>-179.95</v>
+        <v>143.69</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,11 +3834,11 @@
       <c r="B212">
         <v>424</v>
       </c>
-      <c r="C212" s="1">
-        <v>9.5978999999999995E-2</v>
+      <c r="C212">
+        <v>0.23114999999999999</v>
       </c>
       <c r="D212">
-        <v>-179.95</v>
+        <v>139.24</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3848,11 +3848,11 @@
       <c r="B213">
         <v>426</v>
       </c>
-      <c r="C213" s="1">
-        <v>9.5443E-2</v>
+      <c r="C213">
+        <v>0.20300000000000001</v>
       </c>
       <c r="D213">
-        <v>-179.95</v>
+        <v>137.03</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,11 +3862,11 @@
       <c r="B214">
         <v>428</v>
       </c>
-      <c r="C214" s="1">
-        <v>9.4936000000000006E-2</v>
+      <c r="C214">
+        <v>0.17856</v>
       </c>
       <c r="D214">
-        <v>-179.95</v>
+        <v>135.07</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,11 +3876,11 @@
       <c r="B215">
         <v>430</v>
       </c>
-      <c r="C215" s="1">
-        <v>9.4454999999999997E-2</v>
+      <c r="C215">
+        <v>0.15173</v>
       </c>
       <c r="D215">
-        <v>-179.95</v>
+        <v>133.88</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3890,11 +3890,11 @@
       <c r="B216">
         <v>432</v>
       </c>
-      <c r="C216" s="1">
-        <v>9.4001000000000001E-2</v>
+      <c r="C216">
+        <v>0.12551999999999999</v>
       </c>
       <c r="D216">
-        <v>-179.95</v>
+        <v>136.41999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,11 +3904,11 @@
       <c r="B217">
         <v>434</v>
       </c>
-      <c r="C217" s="1">
-        <v>9.3572000000000002E-2</v>
+      <c r="C217">
+        <v>0.10759000000000001</v>
       </c>
       <c r="D217">
-        <v>-179.95</v>
+        <v>143.47</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3919,10 +3919,10 @@
         <v>436</v>
       </c>
       <c r="C218" s="1">
-        <v>9.3167E-2</v>
+        <v>9.9583000000000005E-2</v>
       </c>
       <c r="D218">
-        <v>-179.95</v>
+        <v>152.25</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3933,10 +3933,10 @@
         <v>438</v>
       </c>
       <c r="C219" s="1">
-        <v>9.2785999999999993E-2</v>
+        <v>9.8086000000000007E-2</v>
       </c>
       <c r="D219">
-        <v>-179.95</v>
+        <v>159.87</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3947,10 +3947,10 @@
         <v>440</v>
       </c>
       <c r="C220" s="1">
-        <v>9.2425999999999994E-2</v>
+        <v>9.9525000000000002E-2</v>
       </c>
       <c r="D220">
-        <v>-179.95</v>
+        <v>165.49</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,11 +3960,11 @@
       <c r="B221">
         <v>442</v>
       </c>
-      <c r="C221" s="1">
-        <v>9.2088000000000003E-2</v>
+      <c r="C221">
+        <v>0.10187</v>
       </c>
       <c r="D221">
-        <v>-179.95</v>
+        <v>169.43</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,11 +3974,11 @@
       <c r="B222">
         <v>444</v>
       </c>
-      <c r="C222" s="1">
-        <v>9.1771000000000005E-2</v>
+      <c r="C222">
+        <v>0.10423</v>
       </c>
       <c r="D222">
-        <v>-179.95</v>
+        <v>172.19</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,11 +3988,11 @@
       <c r="B223">
         <v>446</v>
       </c>
-      <c r="C223" s="1">
-        <v>9.1474E-2</v>
+      <c r="C223">
+        <v>0.10625999999999999</v>
       </c>
       <c r="D223">
-        <v>-179.95</v>
+        <v>174.16</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4002,11 +4002,11 @@
       <c r="B224">
         <v>448</v>
       </c>
-      <c r="C224" s="1">
-        <v>9.1195999999999999E-2</v>
+      <c r="C224">
+        <v>0.10789</v>
       </c>
       <c r="D224">
-        <v>-179.95</v>
+        <v>175.6</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4016,11 +4016,11 @@
       <c r="B225">
         <v>450</v>
       </c>
-      <c r="C225" s="1">
-        <v>9.0937000000000004E-2</v>
+      <c r="C225">
+        <v>0.10911</v>
       </c>
       <c r="D225">
-        <v>-179.95</v>
+        <v>176.69</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,11 +4030,11 @@
       <c r="B226">
         <v>452</v>
       </c>
-      <c r="C226" s="1">
-        <v>9.0697E-2</v>
+      <c r="C226">
+        <v>0.10995000000000001</v>
       </c>
       <c r="D226">
-        <v>-179.95</v>
+        <v>177.54</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,11 +4044,11 @@
       <c r="B227">
         <v>454</v>
       </c>
-      <c r="C227" s="1">
-        <v>9.0473999999999999E-2</v>
+      <c r="C227">
+        <v>0.11047999999999999</v>
       </c>
       <c r="D227">
-        <v>-179.95</v>
+        <v>178.21</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4058,11 +4058,11 @@
       <c r="B228">
         <v>456</v>
       </c>
-      <c r="C228" s="1">
-        <v>9.0269000000000002E-2</v>
+      <c r="C228">
+        <v>0.11072</v>
       </c>
       <c r="D228">
-        <v>-179.94</v>
+        <v>178.76</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,11 +4072,11 @@
       <c r="B229">
         <v>458</v>
       </c>
-      <c r="C229" s="1">
-        <v>9.0080999999999994E-2</v>
+      <c r="C229">
+        <v>0.11072</v>
       </c>
       <c r="D229">
-        <v>-179.94</v>
+        <v>179.22</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,11 +4086,11 @@
       <c r="B230">
         <v>460</v>
       </c>
-      <c r="C230" s="1">
-        <v>8.9910000000000004E-2</v>
+      <c r="C230">
+        <v>0.1105</v>
       </c>
       <c r="D230">
-        <v>-179.94</v>
+        <v>179.61</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,11 +4100,11 @@
       <c r="B231">
         <v>462</v>
       </c>
-      <c r="C231" s="1">
-        <v>8.9755000000000001E-2</v>
+      <c r="C231">
+        <v>0.1101</v>
       </c>
       <c r="D231">
-        <v>-179.94</v>
+        <v>179.96</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,11 +4114,11 @@
       <c r="B232">
         <v>464</v>
       </c>
-      <c r="C232" s="1">
-        <v>8.9615E-2</v>
+      <c r="C232">
+        <v>0.10953</v>
       </c>
       <c r="D232">
-        <v>-179.94</v>
+        <v>-179.73</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,11 +4128,11 @@
       <c r="B233">
         <v>466</v>
       </c>
-      <c r="C233" s="1">
-        <v>8.9492000000000002E-2</v>
+      <c r="C233">
+        <v>0.10882</v>
       </c>
       <c r="D233">
-        <v>-179.94</v>
+        <v>-179.45</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,11 +4142,11 @@
       <c r="B234">
         <v>468</v>
       </c>
-      <c r="C234" s="1">
-        <v>8.9384000000000005E-2</v>
+      <c r="C234">
+        <v>0.10797</v>
       </c>
       <c r="D234">
-        <v>-179.94</v>
+        <v>-179.18</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,11 +4156,11 @@
       <c r="B235">
         <v>470</v>
       </c>
-      <c r="C235" s="1">
-        <v>8.9289999999999994E-2</v>
+      <c r="C235">
+        <v>0.10699</v>
       </c>
       <c r="D235">
-        <v>-179.94</v>
+        <v>-178.92</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,11 +4170,11 @@
       <c r="B236">
         <v>472</v>
       </c>
-      <c r="C236" s="1">
-        <v>8.9212E-2</v>
+      <c r="C236">
+        <v>0.10589999999999999</v>
       </c>
       <c r="D236">
-        <v>-179.94</v>
+        <v>-178.67</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,11 +4184,11 @@
       <c r="B237">
         <v>474</v>
       </c>
-      <c r="C237" s="1">
-        <v>8.9148000000000005E-2</v>
+      <c r="C237">
+        <v>0.10469000000000001</v>
       </c>
       <c r="D237">
-        <v>-179.94</v>
+        <v>-178.42</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,11 +4198,11 @@
       <c r="B238">
         <v>476</v>
       </c>
-      <c r="C238" s="1">
-        <v>8.9098999999999998E-2</v>
+      <c r="C238">
+        <v>0.10338</v>
       </c>
       <c r="D238">
-        <v>-179.94</v>
+        <v>-178.16</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,11 +4212,11 @@
       <c r="B239">
         <v>478</v>
       </c>
-      <c r="C239" s="1">
-        <v>8.9065000000000005E-2</v>
+      <c r="C239">
+        <v>0.10196</v>
       </c>
       <c r="D239">
-        <v>-179.94</v>
+        <v>-177.89</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,11 +4226,11 @@
       <c r="B240">
         <v>480</v>
       </c>
-      <c r="C240" s="1">
-        <v>8.9043999999999998E-2</v>
+      <c r="C240">
+        <v>0.10043000000000001</v>
       </c>
       <c r="D240">
-        <v>-179.94</v>
+        <v>-177.6</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4241,10 +4241,10 @@
         <v>482</v>
       </c>
       <c r="C241" s="1">
-        <v>8.9038000000000006E-2</v>
+        <v>9.8784999999999998E-2</v>
       </c>
       <c r="D241">
-        <v>-179.94</v>
+        <v>-177.3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,10 +4255,10 @@
         <v>484</v>
       </c>
       <c r="C242" s="1">
-        <v>8.9044999999999999E-2</v>
+        <v>9.7030000000000005E-2</v>
       </c>
       <c r="D242">
-        <v>-179.94</v>
+        <v>-176.97</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,10 +4269,10 @@
         <v>486</v>
       </c>
       <c r="C243" s="1">
-        <v>8.9066999999999993E-2</v>
+        <v>9.5156000000000004E-2</v>
       </c>
       <c r="D243">
-        <v>-179.94</v>
+        <v>-176.61</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,10 +4283,10 @@
         <v>488</v>
       </c>
       <c r="C244" s="1">
-        <v>8.9102000000000001E-2</v>
+        <v>9.3158000000000005E-2</v>
       </c>
       <c r="D244">
-        <v>-179.94</v>
+        <v>-176.2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,10 +4297,10 @@
         <v>490</v>
       </c>
       <c r="C245" s="1">
-        <v>8.9150999999999994E-2</v>
+        <v>9.1025999999999996E-2</v>
       </c>
       <c r="D245">
-        <v>-179.93</v>
+        <v>-175.74</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,10 +4311,10 @@
         <v>492</v>
       </c>
       <c r="C246" s="1">
-        <v>8.9214000000000002E-2</v>
+        <v>8.8752999999999999E-2</v>
       </c>
       <c r="D246">
-        <v>-179.93</v>
+        <v>-175.23</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,10 +4325,10 @@
         <v>494</v>
       </c>
       <c r="C247" s="1">
-        <v>8.9290999999999995E-2</v>
+        <v>8.6327000000000001E-2</v>
       </c>
       <c r="D247">
-        <v>-179.93</v>
+        <v>-174.63</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,10 +4339,10 @@
         <v>496</v>
       </c>
       <c r="C248" s="1">
-        <v>8.9381000000000002E-2</v>
+        <v>8.3737000000000006E-2</v>
       </c>
       <c r="D248">
-        <v>-179.93</v>
+        <v>-173.94</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>498</v>
       </c>
       <c r="C249" s="1">
-        <v>8.9484999999999995E-2</v>
+        <v>8.0968999999999999E-2</v>
       </c>
       <c r="D249">
-        <v>-179.93</v>
+        <v>-173.13</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4367,10 +4367,10 @@
         <v>500</v>
       </c>
       <c r="C250" s="1">
-        <v>8.9604000000000003E-2</v>
+        <v>7.8009999999999996E-2</v>
       </c>
       <c r="D250">
-        <v>-179.93</v>
+        <v>-172.16</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,10 +4381,10 @@
         <v>502</v>
       </c>
       <c r="C251" s="1">
-        <v>8.9735999999999996E-2</v>
+        <v>7.4845999999999996E-2</v>
       </c>
       <c r="D251">
-        <v>-179.93</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,10 +4395,10 @@
         <v>504</v>
       </c>
       <c r="C252" s="1">
-        <v>8.9882000000000004E-2</v>
+        <v>7.1464E-2</v>
       </c>
       <c r="D252">
-        <v>-179.93</v>
+        <v>-169.59</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,10 +4409,10 @@
         <v>506</v>
       </c>
       <c r="C253" s="1">
-        <v>9.0041999999999997E-2</v>
+        <v>6.7854999999999999E-2</v>
       </c>
       <c r="D253">
-        <v>-179.93</v>
+        <v>-167.84</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,10 +4423,10 @@
         <v>508</v>
       </c>
       <c r="C254" s="1">
-        <v>9.0216000000000005E-2</v>
+        <v>6.4019000000000006E-2</v>
       </c>
       <c r="D254">
-        <v>-179.93</v>
+        <v>-165.64</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,10 +4437,10 @@
         <v>510</v>
       </c>
       <c r="C255" s="1">
-        <v>9.0404999999999999E-2</v>
+        <v>5.9970999999999997E-2</v>
       </c>
       <c r="D255">
-        <v>-179.93</v>
+        <v>-162.83000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,10 +4451,10 @@
         <v>512</v>
       </c>
       <c r="C256" s="1">
-        <v>9.0607999999999994E-2</v>
+        <v>5.5759000000000003E-2</v>
       </c>
       <c r="D256">
-        <v>-179.93</v>
+        <v>-159.16</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,10 +4465,10 @@
         <v>514</v>
       </c>
       <c r="C257" s="1">
-        <v>9.0825000000000003E-2</v>
+        <v>5.1489E-2</v>
       </c>
       <c r="D257">
-        <v>-179.93</v>
+        <v>-154.29</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,10 +4479,10 @@
         <v>516</v>
       </c>
       <c r="C258" s="1">
-        <v>9.1058E-2</v>
+        <v>4.7375E-2</v>
       </c>
       <c r="D258">
-        <v>-179.93</v>
+        <v>-147.72999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,10 +4493,10 @@
         <v>518</v>
       </c>
       <c r="C259" s="1">
-        <v>9.1304999999999997E-2</v>
+        <v>4.3825000000000003E-2</v>
       </c>
       <c r="D259">
-        <v>-179.92</v>
+        <v>-138.88999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>520</v>
       </c>
       <c r="C260" s="1">
-        <v>9.1567999999999997E-2</v>
+        <v>4.1547000000000001E-2</v>
       </c>
       <c r="D260">
-        <v>-179.92</v>
+        <v>-127.28</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,10 +4521,10 @@
         <v>522</v>
       </c>
       <c r="C261" s="1">
-        <v>9.1845999999999997E-2</v>
+        <v>4.1575000000000001E-2</v>
       </c>
       <c r="D261">
-        <v>-179.92</v>
+        <v>-113.18</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,10 +4535,10 @@
         <v>524</v>
       </c>
       <c r="C262" s="1">
-        <v>9.214E-2</v>
+        <v>4.5032999999999997E-2</v>
       </c>
       <c r="D262">
-        <v>-179.92</v>
+        <v>-98.272000000000006</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>526</v>
       </c>
       <c r="C263" s="1">
-        <v>9.2450000000000004E-2</v>
+        <v>5.2670000000000002E-2</v>
       </c>
       <c r="D263">
-        <v>-179.92</v>
+        <v>-84.921000000000006</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,10 +4563,10 @@
         <v>528</v>
       </c>
       <c r="C264" s="1">
-        <v>9.2776999999999998E-2</v>
+        <v>6.4756999999999995E-2</v>
       </c>
       <c r="D264">
-        <v>-179.92</v>
+        <v>-74.572999999999993</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,10 +4577,10 @@
         <v>530</v>
       </c>
       <c r="C265" s="1">
-        <v>9.3119999999999994E-2</v>
+        <v>8.1442000000000001E-2</v>
       </c>
       <c r="D265">
-        <v>-179.92</v>
+        <v>-67.349999999999994</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,11 +4590,11 @@
       <c r="B266">
         <v>532</v>
       </c>
-      <c r="C266" s="1">
-        <v>9.3479999999999994E-2</v>
+      <c r="C266">
+        <v>0.1031</v>
       </c>
       <c r="D266">
-        <v>-179.92</v>
+        <v>-62.783000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,11 +4604,11 @@
       <c r="B267">
         <v>534</v>
       </c>
-      <c r="C267" s="1">
-        <v>9.3856999999999996E-2</v>
+      <c r="C267">
+        <v>0.1305</v>
       </c>
       <c r="D267">
-        <v>-179.92</v>
+        <v>-60.384</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,11 +4618,11 @@
       <c r="B268">
         <v>536</v>
       </c>
-      <c r="C268" s="1">
-        <v>9.4252000000000002E-2</v>
+      <c r="C268">
+        <v>0.16481999999999999</v>
       </c>
       <c r="D268">
-        <v>-179.92</v>
+        <v>-59.838999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,11 +4632,11 @@
       <c r="B269">
         <v>538</v>
       </c>
-      <c r="C269" s="1">
-        <v>9.4666E-2</v>
+      <c r="C269">
+        <v>0.20765</v>
       </c>
       <c r="D269">
-        <v>-179.92</v>
+        <v>-61.024999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,11 +4646,11 @@
       <c r="B270">
         <v>540</v>
       </c>
-      <c r="C270" s="1">
-        <v>9.5098000000000002E-2</v>
+      <c r="C270">
+        <v>0.26082</v>
       </c>
       <c r="D270">
-        <v>-179.92</v>
+        <v>-63.997</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,11 +4660,11 @@
       <c r="B271">
         <v>542</v>
       </c>
-      <c r="C271" s="1">
-        <v>9.5549999999999996E-2</v>
+      <c r="C271">
+        <v>0.32574999999999998</v>
       </c>
       <c r="D271">
-        <v>-179.91</v>
+        <v>-68.959000000000003</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,11 +4674,11 @@
       <c r="B272">
         <v>544</v>
       </c>
-      <c r="C272" s="1">
-        <v>9.6020999999999995E-2</v>
+      <c r="C272">
+        <v>0.40177000000000002</v>
       </c>
       <c r="D272">
-        <v>-179.91</v>
+        <v>-76.188000000000002</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,11 +4688,11 @@
       <c r="B273">
         <v>546</v>
       </c>
-      <c r="C273" s="1">
-        <v>9.6513000000000002E-2</v>
+      <c r="C273">
+        <v>0.48299999999999998</v>
       </c>
       <c r="D273">
-        <v>-179.91</v>
+        <v>-85.838999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,11 +4702,11 @@
       <c r="B274">
         <v>548</v>
       </c>
-      <c r="C274" s="1">
-        <v>9.7026000000000001E-2</v>
+      <c r="C274">
+        <v>0.55566000000000004</v>
       </c>
       <c r="D274">
-        <v>-179.91</v>
+        <v>-97.587999999999994</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,11 +4716,11 @@
       <c r="B275">
         <v>550</v>
       </c>
-      <c r="C275" s="1">
-        <v>9.7560999999999995E-2</v>
+      <c r="C275">
+        <v>0.60251999999999994</v>
       </c>
       <c r="D275">
-        <v>-179.91</v>
+        <v>-110.34</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,11 +4730,11 @@
       <c r="B276">
         <v>552</v>
       </c>
-      <c r="C276" s="1">
-        <v>9.8117999999999997E-2</v>
+      <c r="C276">
+        <v>0.61560999999999999</v>
       </c>
       <c r="D276">
-        <v>-179.91</v>
+        <v>-122.54</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,11 +4744,11 @@
       <c r="B277">
         <v>554</v>
       </c>
-      <c r="C277" s="1">
-        <v>9.8697999999999994E-2</v>
+      <c r="C277">
+        <v>0.60185</v>
       </c>
       <c r="D277">
-        <v>-179.91</v>
+        <v>-133.05000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,11 +4758,11 @@
       <c r="B278">
         <v>556</v>
       </c>
-      <c r="C278" s="1">
-        <v>9.9302000000000001E-2</v>
+      <c r="C278">
+        <v>0.57423999999999997</v>
       </c>
       <c r="D278">
-        <v>-179.91</v>
+        <v>-141.52000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,11 +4772,11 @@
       <c r="B279">
         <v>558</v>
       </c>
-      <c r="C279" s="1">
-        <v>9.9931000000000006E-2</v>
+      <c r="C279">
+        <v>0.54281000000000001</v>
       </c>
       <c r="D279">
-        <v>-179.9</v>
+        <v>-148.12</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,10 +4787,10 @@
         <v>560</v>
       </c>
       <c r="C280">
-        <v>0.10059</v>
+        <v>0.51276999999999995</v>
       </c>
       <c r="D280">
-        <v>-179.9</v>
+        <v>-153.24</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -4801,10 +4801,10 @@
         <v>562</v>
       </c>
       <c r="C281">
-        <v>0.10127</v>
+        <v>0.48612</v>
       </c>
       <c r="D281">
-        <v>-179.9</v>
+        <v>-157.24</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>564</v>
       </c>
       <c r="C282">
-        <v>0.10198</v>
+        <v>0.46328999999999998</v>
       </c>
       <c r="D282">
-        <v>-179.9</v>
+        <v>-160.38999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,10 +4829,10 @@
         <v>566</v>
       </c>
       <c r="C283">
-        <v>0.10272000000000001</v>
+        <v>0.44406000000000001</v>
       </c>
       <c r="D283">
-        <v>-179.9</v>
+        <v>-162.91999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,10 +4843,10 @@
         <v>568</v>
       </c>
       <c r="C284">
-        <v>0.10349</v>
+        <v>0.42802000000000001</v>
       </c>
       <c r="D284">
-        <v>-179.9</v>
+        <v>-164.98</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,10 +4857,10 @@
         <v>570</v>
       </c>
       <c r="C285">
-        <v>0.10428999999999999</v>
+        <v>0.41471000000000002</v>
       </c>
       <c r="D285">
-        <v>-179.9</v>
+        <v>-166.68</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,10 +4871,10 @@
         <v>572</v>
       </c>
       <c r="C286">
-        <v>0.10513</v>
+        <v>0.40375</v>
       </c>
       <c r="D286">
-        <v>-179.89</v>
+        <v>-168.12</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,10 +4885,10 @@
         <v>574</v>
       </c>
       <c r="C287">
-        <v>0.106</v>
+        <v>0.39478999999999997</v>
       </c>
       <c r="D287">
-        <v>-179.89</v>
+        <v>-169.34</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,10 +4899,10 @@
         <v>576</v>
       </c>
       <c r="C288">
-        <v>0.10691000000000001</v>
+        <v>0.38755000000000001</v>
       </c>
       <c r="D288">
-        <v>-179.89</v>
+        <v>-170.41</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
         <v>578</v>
       </c>
       <c r="C289">
-        <v>0.10785</v>
+        <v>0.38178000000000001</v>
       </c>
       <c r="D289">
-        <v>-179.89</v>
+        <v>-171.37</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,10 +4927,10 @@
         <v>580</v>
       </c>
       <c r="C290">
-        <v>0.10884000000000001</v>
+        <v>0.37723000000000001</v>
       </c>
       <c r="D290">
-        <v>-179.89</v>
+        <v>-172.24</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,10 +4941,10 @@
         <v>582</v>
       </c>
       <c r="C291">
-        <v>0.10987</v>
+        <v>0.37369999999999998</v>
       </c>
       <c r="D291">
-        <v>-179.88</v>
+        <v>-173.04</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,10 +4955,10 @@
         <v>584</v>
       </c>
       <c r="C292">
-        <v>0.11094999999999999</v>
+        <v>0.37097000000000002</v>
       </c>
       <c r="D292">
-        <v>-179.88</v>
+        <v>-173.76</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,10 +4969,10 @@
         <v>586</v>
       </c>
       <c r="C293">
-        <v>0.11208</v>
+        <v>0.36901</v>
       </c>
       <c r="D293">
-        <v>-179.88</v>
+        <v>-174.41</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -4983,10 +4983,10 @@
         <v>588</v>
       </c>
       <c r="C294">
-        <v>0.11326</v>
+        <v>0.36797999999999997</v>
       </c>
       <c r="D294">
-        <v>-179.88</v>
+        <v>-174.95</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,10 +4997,10 @@
         <v>590</v>
       </c>
       <c r="C295">
-        <v>0.1145</v>
+        <v>0.36813000000000001</v>
       </c>
       <c r="D295">
-        <v>-179.87</v>
+        <v>-175.43</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,10 +5011,10 @@
         <v>592</v>
       </c>
       <c r="C296">
-        <v>0.1158</v>
+        <v>0.36954999999999999</v>
       </c>
       <c r="D296">
-        <v>-179.87</v>
+        <v>-175.88</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,10 +5025,10 @@
         <v>594</v>
       </c>
       <c r="C297">
-        <v>0.11716</v>
+        <v>0.37222</v>
       </c>
       <c r="D297">
-        <v>-179.87</v>
+        <v>-176.36</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,10 +5039,10 @@
         <v>596</v>
       </c>
       <c r="C298">
-        <v>0.1186</v>
+        <v>0.37602000000000002</v>
       </c>
       <c r="D298">
-        <v>-179.86</v>
+        <v>-176.9</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5053,10 +5053,10 @@
         <v>598</v>
       </c>
       <c r="C299">
-        <v>0.12010999999999999</v>
+        <v>0.38080000000000003</v>
       </c>
       <c r="D299">
-        <v>-179.86</v>
+        <v>-177.56</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,10 +5067,10 @@
         <v>600</v>
       </c>
       <c r="C300">
-        <v>0.12171</v>
+        <v>0.38633000000000001</v>
       </c>
       <c r="D300">
-        <v>-179.86</v>
+        <v>-178.36</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,10 +5081,10 @@
         <v>602</v>
       </c>
       <c r="C301">
-        <v>0.1234</v>
+        <v>0.39219999999999999</v>
       </c>
       <c r="D301">
-        <v>-179.85</v>
+        <v>-179.34</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,10 +5095,10 @@
         <v>604</v>
       </c>
       <c r="C302">
-        <v>0.12520000000000001</v>
+        <v>0.39763999999999999</v>
       </c>
       <c r="D302">
-        <v>-179.85</v>
+        <v>179.48</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,10 +5109,10 @@
         <v>606</v>
       </c>
       <c r="C303">
-        <v>0.12711</v>
+        <v>0.40151999999999999</v>
       </c>
       <c r="D303">
-        <v>-179.84</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,10 +5123,10 @@
         <v>608</v>
       </c>
       <c r="C304">
-        <v>0.12914999999999999</v>
+        <v>0.40281</v>
       </c>
       <c r="D304">
-        <v>-179.84</v>
+        <v>176.92</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>610</v>
       </c>
       <c r="C305">
-        <v>0.13134000000000001</v>
+        <v>0.4017</v>
       </c>
       <c r="D305">
-        <v>-179.83</v>
+        <v>176.08</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,10 +5151,10 @@
         <v>612</v>
       </c>
       <c r="C306">
-        <v>0.13370000000000001</v>
+        <v>0.40046999999999999</v>
       </c>
       <c r="D306">
-        <v>-179.82</v>
+        <v>175.94</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5165,10 @@
         <v>614</v>
       </c>
       <c r="C307">
-        <v>0.13625000000000001</v>
+        <v>0.40227000000000002</v>
       </c>
       <c r="D307">
-        <v>-179.82</v>
+        <v>176.46</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,10 +5179,10 @@
         <v>616</v>
       </c>
       <c r="C308">
-        <v>0.13904</v>
+        <v>0.40910999999999997</v>
       </c>
       <c r="D308">
-        <v>-179.81</v>
+        <v>177.35</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,10 +5193,10 @@
         <v>618</v>
       </c>
       <c r="C309">
-        <v>0.1421</v>
+        <v>0.42147000000000001</v>
       </c>
       <c r="D309">
-        <v>-179.8</v>
+        <v>178.32</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,10 +5207,10 @@
         <v>620</v>
       </c>
       <c r="C310">
-        <v>0.14549999999999999</v>
+        <v>0.43918000000000001</v>
       </c>
       <c r="D310">
-        <v>-179.79</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,10 +5221,10 @@
         <v>622</v>
       </c>
       <c r="C311">
-        <v>0.14932999999999999</v>
+        <v>0.46231</v>
       </c>
       <c r="D311">
-        <v>-179.77</v>
+        <v>179.93</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,10 +5235,10 @@
         <v>624</v>
       </c>
       <c r="C312">
-        <v>0.15368999999999999</v>
+        <v>0.49153000000000002</v>
       </c>
       <c r="D312">
-        <v>-179.76</v>
+        <v>-179.47</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,10 +5249,10 @@
         <v>626</v>
       </c>
       <c r="C313">
-        <v>0.15876999999999999</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="D313">
-        <v>-179.74</v>
+        <v>-178.99</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,10 +5263,10 @@
         <v>628</v>
       </c>
       <c r="C314">
-        <v>0.16483999999999999</v>
+        <v>0.57528000000000001</v>
       </c>
       <c r="D314">
-        <v>-179.72</v>
+        <v>-178.6</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,10 +5277,10 @@
         <v>630</v>
       </c>
       <c r="C315">
-        <v>0.17230999999999999</v>
+        <v>0.63702000000000003</v>
       </c>
       <c r="D315">
-        <v>-179.69</v>
+        <v>-178.26</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>632</v>
       </c>
       <c r="C316">
-        <v>0.18195</v>
+        <v>0.72163999999999995</v>
       </c>
       <c r="D316">
-        <v>-179.65</v>
+        <v>-177.97</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,10 +5305,10 @@
         <v>634</v>
       </c>
       <c r="C317">
-        <v>0.19520999999999999</v>
+        <v>0.84484000000000004</v>
       </c>
       <c r="D317">
-        <v>-179.61</v>
+        <v>-177.7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,10 +5319,10 @@
         <v>636</v>
       </c>
       <c r="C318">
-        <v>0.21526999999999999</v>
+        <v>1.0412999999999999</v>
       </c>
       <c r="D318">
-        <v>-179.54</v>
+        <v>-177.44</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,10 +5333,10 @@
         <v>638</v>
       </c>
       <c r="C319">
-        <v>0.25076999999999999</v>
+        <v>1.4053</v>
       </c>
       <c r="D319">
-        <v>-179.44</v>
+        <v>-177.17</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,10 +5347,10 @@
         <v>640</v>
       </c>
       <c r="C320">
-        <v>0.33640999999999999</v>
+        <v>2.3155000000000001</v>
       </c>
       <c r="D320">
-        <v>-179.28</v>
+        <v>-176.89</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,10 +5361,10 @@
         <v>642</v>
       </c>
       <c r="C321">
-        <v>0.93154999999999999</v>
+        <v>8.7865000000000002</v>
       </c>
       <c r="D321">
-        <v>-178.97</v>
+        <v>-176.58</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5375,10 @@
         <v>644</v>
       </c>
       <c r="C322">
-        <v>0.23344999999999999</v>
+        <v>3.9582000000000002</v>
       </c>
       <c r="D322">
-        <v>2.0421</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5388,11 +5388,11 @@
       <c r="B323">
         <v>646</v>
       </c>
-      <c r="C323" s="1">
-        <v>4.1637000000000002E-3</v>
+      <c r="C323">
+        <v>1.4674</v>
       </c>
       <c r="D323">
-        <v>52.228000000000002</v>
+        <v>4.3048000000000002</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,11 +5402,11 @@
       <c r="B324">
         <v>648</v>
       </c>
-      <c r="C324" s="1">
-        <v>5.7869999999999998E-2</v>
+      <c r="C324">
+        <v>0.83853</v>
       </c>
       <c r="D324">
-        <v>177.99</v>
+        <v>4.9078999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,11 +5416,11 @@
       <c r="B325">
         <v>650</v>
       </c>
-      <c r="C325" s="1">
-        <v>8.7138999999999994E-2</v>
+      <c r="C325">
+        <v>0.55096000000000001</v>
       </c>
       <c r="D325">
-        <v>179.04</v>
+        <v>5.7089999999999996</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,10 +5431,10 @@
         <v>652</v>
       </c>
       <c r="C326">
-        <v>0.10541</v>
+        <v>0.38575999999999999</v>
       </c>
       <c r="D326">
-        <v>179.38</v>
+        <v>6.8003999999999998</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,10 +5445,10 @@
         <v>654</v>
       </c>
       <c r="C327">
-        <v>0.1186</v>
+        <v>0.27848000000000001</v>
       </c>
       <c r="D327">
-        <v>179.56</v>
+        <v>8.3115000000000006</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5459,10 +5459,10 @@
         <v>656</v>
       </c>
       <c r="C328">
-        <v>0.12909999999999999</v>
+        <v>0.20338999999999999</v>
       </c>
       <c r="D328">
-        <v>179.66</v>
+        <v>10.406000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>658</v>
       </c>
       <c r="C329">
-        <v>0.13805999999999999</v>
+        <v>0.14810999999999999</v>
       </c>
       <c r="D329">
-        <v>179.73</v>
+        <v>13.281000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,10 +5487,10 @@
         <v>660</v>
       </c>
       <c r="C330">
-        <v>0.14610999999999999</v>
+        <v>0.1057</v>
       </c>
       <c r="D330">
-        <v>179.77</v>
+        <v>17.248000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5500,11 +5500,11 @@
       <c r="B331">
         <v>662</v>
       </c>
-      <c r="C331">
-        <v>0.15362999999999999</v>
+      <c r="C331" s="1">
+        <v>7.1835999999999997E-2</v>
       </c>
       <c r="D331">
-        <v>179.81</v>
+        <v>23.216999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,11 +5514,11 @@
       <c r="B332">
         <v>664</v>
       </c>
-      <c r="C332">
-        <v>0.16087000000000001</v>
+      <c r="C332" s="1">
+        <v>4.4227000000000002E-2</v>
       </c>
       <c r="D332">
-        <v>179.84</v>
+        <v>34.515000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,11 +5528,11 @@
       <c r="B333">
         <v>666</v>
       </c>
-      <c r="C333">
-        <v>0.16800999999999999</v>
+      <c r="C333" s="1">
+        <v>2.4274E-2</v>
       </c>
       <c r="D333">
-        <v>179.86</v>
+        <v>64.510000000000005</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,11 +5542,11 @@
       <c r="B334">
         <v>668</v>
       </c>
-      <c r="C334">
-        <v>0.17518</v>
+      <c r="C334" s="1">
+        <v>2.3116000000000001E-2</v>
       </c>
       <c r="D334">
-        <v>179.88</v>
+        <v>124.09</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,11 +5556,11 @@
       <c r="B335">
         <v>670</v>
       </c>
-      <c r="C335">
-        <v>0.18251000000000001</v>
+      <c r="C335" s="1">
+        <v>3.8263999999999999E-2</v>
       </c>
       <c r="D335">
-        <v>179.9</v>
+        <v>153.87</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,11 +5570,11 @@
       <c r="B336">
         <v>672</v>
       </c>
-      <c r="C336">
-        <v>0.19006999999999999</v>
+      <c r="C336" s="1">
+        <v>5.6204999999999998E-2</v>
       </c>
       <c r="D336">
-        <v>179.91</v>
+        <v>164.51</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,11 +5584,11 @@
       <c r="B337">
         <v>674</v>
       </c>
-      <c r="C337">
-        <v>0.19797000000000001</v>
+      <c r="C337" s="1">
+        <v>7.3994000000000004E-2</v>
       </c>
       <c r="D337">
-        <v>179.92</v>
+        <v>169.45</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5598,11 +5598,11 @@
       <c r="B338">
         <v>676</v>
       </c>
-      <c r="C338">
-        <v>0.20630000000000001</v>
+      <c r="C338" s="1">
+        <v>9.1250999999999999E-2</v>
       </c>
       <c r="D338">
-        <v>179.93</v>
+        <v>172.21</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,10 +5613,10 @@
         <v>678</v>
       </c>
       <c r="C339">
-        <v>0.21514</v>
+        <v>0.10804999999999999</v>
       </c>
       <c r="D339">
-        <v>179.94</v>
+        <v>173.92</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,10 +5627,10 @@
         <v>680</v>
       </c>
       <c r="C340">
-        <v>0.22461</v>
+        <v>0.12457</v>
       </c>
       <c r="D340">
-        <v>179.95</v>
+        <v>175.08</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,10 +5641,10 @@
         <v>682</v>
       </c>
       <c r="C341">
-        <v>0.23480999999999999</v>
+        <v>0.14101</v>
       </c>
       <c r="D341">
-        <v>179.95</v>
+        <v>175.9</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,10 +5655,10 @@
         <v>684</v>
       </c>
       <c r="C342">
-        <v>0.24589</v>
+        <v>0.15761</v>
       </c>
       <c r="D342">
-        <v>179.96</v>
+        <v>176.51</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,10 +5669,10 @@
         <v>686</v>
       </c>
       <c r="C343">
-        <v>0.25801000000000002</v>
+        <v>0.17458000000000001</v>
       </c>
       <c r="D343">
-        <v>179.97</v>
+        <v>176.98</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,10 +5683,10 @@
         <v>688</v>
       </c>
       <c r="C344">
-        <v>0.27134000000000003</v>
+        <v>0.19220000000000001</v>
       </c>
       <c r="D344">
-        <v>179.97</v>
+        <v>177.35</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5697,10 +5697,10 @@
         <v>690</v>
       </c>
       <c r="C345">
-        <v>0.28611999999999999</v>
+        <v>0.21073</v>
       </c>
       <c r="D345">
-        <v>179.98</v>
+        <v>177.65</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5711,10 @@
         <v>692</v>
       </c>
       <c r="C346">
-        <v>0.30263000000000001</v>
+        <v>0.23050000000000001</v>
       </c>
       <c r="D346">
-        <v>179.98</v>
+        <v>177.89</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,10 +5725,10 @@
         <v>694</v>
       </c>
       <c r="C347">
-        <v>0.32124999999999998</v>
+        <v>0.25189</v>
       </c>
       <c r="D347">
-        <v>179.98</v>
+        <v>178.1</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,10 +5739,10 @@
         <v>696</v>
       </c>
       <c r="C348">
-        <v>0.34244000000000002</v>
+        <v>0.27539000000000002</v>
       </c>
       <c r="D348">
-        <v>179.99</v>
+        <v>178.27</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,10 +5753,10 @@
         <v>698</v>
       </c>
       <c r="C349">
-        <v>0.36680000000000001</v>
+        <v>0.30159000000000002</v>
       </c>
       <c r="D349">
-        <v>179.99</v>
+        <v>178.42</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>700</v>
       </c>
       <c r="C350">
-        <v>0.39513999999999999</v>
+        <v>0.33129999999999998</v>
       </c>
       <c r="D350">
-        <v>179.99</v>
+        <v>178.54</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5781,10 @@
         <v>702</v>
       </c>
       <c r="C351">
-        <v>0.42859999999999998</v>
+        <v>0.36559000000000003</v>
       </c>
       <c r="D351">
-        <v>180</v>
+        <v>178.65</v>
       </c>
     </row>
   </sheetData>
